--- a/lfd_package/results/chicago_il/chicago_il_results.xlsx
+++ b/lfd_package/results/chicago_il/chicago_il_results.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15720" windowWidth="29040" xWindow="20370" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="chicago_il" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="pre1980_chicago_illinois.csv" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pre1980_Chicago_IL.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="post1980_Chicago_IL.csv" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -448,1155 +448,1411 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="24.85546875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="16.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="10"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="14.28515625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="11"/>
-    <col customWidth="1" max="11" min="11" width="22.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="16.28515625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" width="13.5703125"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" width="11.7109375"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Baseline Demand</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ELF</t>
         </is>
       </c>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TLF</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>PP PES</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr"/>
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>PP Peak</t>
         </is>
       </c>
-      <c r="S1" s="1" t="n"/>
+      <c r="J1" s="2" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Annual Electrical Demand</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>273.83</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>megawatt_hour</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>273832.77</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Peak Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Annual Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>463105.633</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peak Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>273.696</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHP Size</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>40.511</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TES Size</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>296.21</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>284.067</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>340.58</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aux Boiler Size</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHP Electrical Energy Generation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>173780.03</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>178883.58</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>400057.7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electrical Energy Bought</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100052.74</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>135799.53</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100816.8</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electrical Energy Sold</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40850.35</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>227041.74</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHP Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>325333.59</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>344802.59</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>748948.03</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TES Thermal Energy Dispatched</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6461.09</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>41075.13</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>110071.24</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>251796.9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>122008.66</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>108095.75</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CHP Electrical Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electricity Bought Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>36.54</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>49.59</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CHP Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74.45</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>161.72</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TES Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Thermal Energy Savings</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>-341416.46</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-368006.31</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>-224335.69</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>-704944.13</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>-2376390.44</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Peak Electrical Demand</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>92.61</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>-1011487.55</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Electrical Energy Savings</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>173780.03</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>138033.23</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>245543.87</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>273832.77</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Annual Thermal Demand</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>463.106</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>megawatt_hour</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>434450.06</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>345083.08</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>432539.9</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Total Energy Savings</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>-167636.43</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>-86302.46000000001</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>-459400.26</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>-2102557.68</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Peak Thermal Demand</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>273.696</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>Operating Mode</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>Total Annual CO2</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Operation Mode</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>CHP Size</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>TES Size</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Aux Boiler Size</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Baseline</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>66443.75999999999</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>120747.39</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-578947.64</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electricity Cost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>16826.17</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>9450.059999999999</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>10967.89</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>9482.870000000001</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fuel Cost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9241.809999999999</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>11120.82</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>10387.25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>14406.39</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHP Installed Cost</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>68926.60000000001</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>139899.39</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>319799.83</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHP O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5213.4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5366.51</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>12001.73</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TES Installed Cost</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6208.53</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>5954.03</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>7138.54</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TES O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PP Revenue</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1733.66</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>9635.219999999999</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Simple Payback [Yrs]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>264.84</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>135.05</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>-1740.93</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Simple Payback (37.5% incentive)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>165.52</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>-1088.08</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>159</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>metric_ton</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELF</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>283.409</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ELF</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>95</v>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="E32" t="n">
+        <v>96</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>metric_ton</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TLF</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>40.51</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>284.067</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>TLF</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
+      <c r="G32" t="n">
         <v>107</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>metric_ton</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PP PES</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>35</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>249.659</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>PP (Max PES)</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>77</v>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="I32" t="n">
+        <v>128</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>metric_ton</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PP Peak</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>92.61</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>340.579</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>PP (Peak)</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>146</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>metric_ton</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>ELF</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>TLF</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>PP PES</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>PP Peak</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>Baseline</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>ELF</t>
-        </is>
-      </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>TLF</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="inlineStr">
-        <is>
-          <t>PP PES</t>
-        </is>
-      </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>PP Peak</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CHP Electrical Generation</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>173780.03</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>138033.23</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>245543.87</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>273832.77</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Electricity Cost</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>520.74</v>
-      </c>
-      <c r="M14" t="n">
-        <v>290.23</v>
-      </c>
-      <c r="N14" t="n">
-        <v>337.67</v>
-      </c>
-      <c r="O14" t="n">
-        <v>195.05</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Electrical Energy Bought</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100052.74</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>135799.53</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>28288.9</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Fuel Cost</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>9045.370000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10788.62</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10190.81</v>
-      </c>
-      <c r="O15" t="n">
-        <v>12644.76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>21179.05</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Electrical Energy Sold</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>61056.13</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>537395.36</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>CHP Installed Cost</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>68926.60000000001</v>
-      </c>
-      <c r="N16" t="n">
-        <v>139899.39</v>
-      </c>
-      <c r="O16" t="n">
-        <v>120866.9</v>
-      </c>
-      <c r="P16" t="n">
-        <v>319799.83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CHP Thermal Generation</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>325333.59</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>344802.59</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>573985.86</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1518700.17</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>CHP O&amp;M Cost</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>5213.4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5366.51</v>
-      </c>
-      <c r="O17" t="n">
-        <v>9198</v>
-      </c>
-      <c r="P17" t="n">
-        <v>24336.84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TES Thermal Dispatched</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>27732.97</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>41075.13</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>22819.97</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6022.15</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>TES Installed Cost</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>5940.25</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5954.03</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5232.85</v>
-      </c>
-      <c r="P18" t="n">
-        <v>7138.54</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Boiler Thermal Generation</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>230525.02</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>122008.66</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>134830.41</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3479.25</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>TES O&amp;M Cost</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>PP Revenue</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>7632.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>27850.33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>ELF</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>TLF</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>PP PES</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="n"/>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>PP Peak</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="n"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Simple Payback [Yrs]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>-11.13</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-23.05</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-26.06</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-40.37</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CHP Electrical Generation</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>63.46</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>89.67</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Simple Payback (37.5% incentive)</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>-6.96</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-14.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-16.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-25.23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Electrical Energy Bought</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>36.54</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>49.59</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CHP Thermal Generation</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>70.25</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>74.45</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>123.94</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>327.94</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>TES Thermal Dispatched</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Boiler Thermal Generation</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>26.35</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>29.11</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>%</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,16 +1901,10 @@
       <c r="H1" s="2" t="inlineStr"/>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>PP PES</t>
+          <t>PP Peak</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr"/>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>PP Peak</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1666,11 +1916,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>273.83</v>
+        <v>269312.25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>megawatt_hour</t>
+          <t>kilowatt_hour</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1699,16 +1949,6 @@
         </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1724,7 +1964,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92.61</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1757,16 +1997,6 @@
         </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1782,11 +2012,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>463.106</v>
+        <v>413229.043</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>megawatt_hour</t>
+          <t>kilowatt_hour</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1815,16 +2045,6 @@
         </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1840,7 +2060,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>273.696</v>
+        <v>244.79</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1873,16 +2093,6 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1908,7 +2118,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.96</v>
+        <v>19.67</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1916,7 +2126,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>40.511</v>
+        <v>34.849</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1924,17 +2134,9 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>92.61</v>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>kilowatt</t>
         </is>
@@ -1960,7 +2162,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>296.21</v>
+        <v>290.15</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1968,7 +2170,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>284.067</v>
+        <v>247.914</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1976,17 +2178,9 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>249.66</v>
+        <v>376.15</v>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>340.58</v>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2012,7 +2206,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>273.7</v>
+        <v>244.79</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2020,7 +2214,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>273.7</v>
+        <v>244.79</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2028,17 +2222,9 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>273.7</v>
+        <v>244.79</v>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>kilowatt</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>kilowatt</t>
         </is>
@@ -2064,7 +2250,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>173780.03</v>
+        <v>171475.36</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2072,7 +2258,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>138033.23</v>
+        <v>156638.52</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2080,17 +2266,9 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>245543.87</v>
+        <v>393729.25</v>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>273832.77</v>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2116,7 +2294,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100052.74</v>
+        <v>97836.89</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2124,7 +2302,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>135799.53</v>
+        <v>137794.28</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2132,17 +2310,9 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>28288.9</v>
+        <v>99314.06</v>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2172,21 +2342,17 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>25120.54</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
       <c r="I11" t="n">
-        <v>61056.13</v>
+        <v>223731.06</v>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>537395.36</v>
-      </c>
-      <c r="L11" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2212,7 +2378,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>325333.59</v>
+        <v>321019.02</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2220,7 +2386,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>344802.59</v>
+        <v>301924.67</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2228,17 +2394,9 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>573985.86</v>
+        <v>737100.54</v>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>1518700.17</v>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2264,7 +2422,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28119.21</v>
+        <v>5413.88</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2272,7 +2430,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>41075.13</v>
+        <v>36325.33</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2280,17 +2438,9 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>22819.97</v>
+        <v>120256.28</v>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>6022.15</v>
-      </c>
-      <c r="L13" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2316,7 +2466,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>230138.78</v>
+        <v>208698.51</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2324,7 +2474,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>122008.66</v>
+        <v>114129.02</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2332,17 +2482,9 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>134830.41</v>
+        <v>76272.21000000001</v>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>3479.25</v>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2368,7 +2510,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>63.46</v>
+        <v>63.67</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2376,7 +2518,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>50.41</v>
+        <v>58.16</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2384,17 +2526,9 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>89.67</v>
+        <v>146.2</v>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2420,7 +2554,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.54</v>
+        <v>36.33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2428,7 +2562,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>49.59</v>
+        <v>51.17</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2436,17 +2570,9 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10.33</v>
+        <v>36.88</v>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2472,7 +2598,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70.25</v>
+        <v>77.69</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2480,7 +2606,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>74.45</v>
+        <v>73.06</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2488,17 +2614,9 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>123.94</v>
+        <v>178.38</v>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>327.94</v>
-      </c>
-      <c r="L17" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2524,7 +2642,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6.07</v>
+        <v>1.31</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2532,7 +2650,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.869999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2540,17 +2658,9 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4.93</v>
+        <v>29.1</v>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2576,7 +2686,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>49.69</v>
+        <v>50.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2584,7 +2694,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>26.35</v>
+        <v>27.62</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2592,17 +2702,9 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>29.11</v>
+        <v>18.46</v>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L19" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -2628,7 +2730,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-340933.66</v>
+        <v>-368095.61</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2636,7 +2738,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-224335.69</v>
+        <v>-195913.24</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2644,17 +2746,9 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-704944.13</v>
+        <v>-1011033.49</v>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>-2376390.44</v>
-      </c>
-      <c r="L20" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2680,7 +2774,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>173780.03</v>
+        <v>428688.4</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2688,7 +2782,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>138033.23</v>
+        <v>328794.94</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2696,17 +2790,9 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>245543.87</v>
+        <v>424995.48</v>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>273832.77</v>
-      </c>
-      <c r="L21" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2732,7 +2818,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-167153.63</v>
+        <v>60592.8</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2740,7 +2826,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-86302.46000000001</v>
+        <v>132881.7</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2748,17 +2834,9 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-459400.26</v>
+        <v>-586038.01</v>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>kilowatt_hour</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>-2102557.68</v>
-      </c>
-      <c r="L22" t="inlineStr">
         <is>
           <t>kilowatt_hour</t>
         </is>
@@ -2774,7 +2852,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>520.74</v>
+        <v>16634.32</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2782,7 +2860,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>290.23</v>
+        <v>9356.030000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2790,7 +2868,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>337.67</v>
+        <v>11052.57</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2798,17 +2876,9 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>195.05</v>
+        <v>9419.08</v>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
         <is>
           <t>dimensionless</t>
         </is>
@@ -2824,7 +2894,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9045.370000000001</v>
+        <v>8923.48</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2832,7 +2902,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10786.15</v>
+        <v>10802.95</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2840,7 +2910,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10190.81</v>
+        <v>9923.799999999999</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2848,17 +2918,9 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12644.76</v>
+        <v>14085.74</v>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>21179.05</v>
-      </c>
-      <c r="L24" t="inlineStr">
         <is>
           <t>dimensionless</t>
         </is>
@@ -2884,7 +2946,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>68926.60000000001</v>
+        <v>67939.25</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2892,7 +2954,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>139899.39</v>
+        <v>120345.96</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2900,17 +2962,9 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>120866.9</v>
+        <v>314014.08</v>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>319799.83</v>
-      </c>
-      <c r="L25" t="inlineStr">
         <is>
           <t>dimensionless</t>
         </is>
@@ -2936,7 +2990,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5213.4</v>
+        <v>5144.26</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2944,7 +2998,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5366.51</v>
+        <v>4699.16</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2952,17 +3006,9 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9198</v>
+        <v>11811.88</v>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>24336.84</v>
-      </c>
-      <c r="L26" t="inlineStr">
         <is>
           <t>dimensionless</t>
         </is>
@@ -2988,7 +3034,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6208.53</v>
+        <v>6081.64</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2996,7 +3042,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5954.03</v>
+        <v>5196.29</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3004,17 +3050,9 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5232.85</v>
+        <v>7884.06</v>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>7138.54</v>
-      </c>
-      <c r="L27" t="inlineStr">
         <is>
           <t>dimensionless</t>
         </is>
@@ -3063,14 +3101,6 @@
           <t>dimensionless</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3100,7 +3130,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1066.11</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3108,17 +3138,9 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7632.18</v>
+        <v>9494.709999999999</v>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>dimensionless</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>27850.33</v>
-      </c>
-      <c r="L29" t="inlineStr">
         <is>
           <t>dimensionless</t>
         </is>
@@ -3144,35 +3166,27 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-11.17</v>
+        <v>290.78</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-23.05</v>
+        <v>132.37</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>-26.06</v>
+        <v>-1218.41</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>-40.37</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>year</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
@@ -3196,35 +3210,27 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-6.98</v>
+        <v>181.73</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-14.4</v>
+        <v>82.73</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>-16.29</v>
+        <v>-761.51</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>-25.23</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>year</t>
+          <t>dimensionless</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3244,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3246,7 +3252,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3254,7 +3260,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3262,17 +3268,9 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>metric_ton</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>146</v>
-      </c>
-      <c r="L32" t="inlineStr">
         <is>
           <t>metric_ton</t>
         </is>
